--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW4.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW4.xlsx
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.7103495317163296</v>
+        <v>-0.0</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.6666643049009703</v>
+        <v>-0.0</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.7366634515680318</v>
+        <v>-0.0</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.645542120380991</v>
+        <v>-0.0</v>
       </c>
       <c r="F107" t="n">
-        <v>-0.7719509627178547</v>
+        <v>-0.0</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.733284995658595</v>
+        <v>-0.0</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.7328466899372972</v>
+        <v>-0.0</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.6571396785755651</v>
+        <v>-0.0</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.7103495317163296</v>
+        <v>-0.0</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.6666643049009703</v>
+        <v>-0.0</v>
       </c>
       <c r="L107" t="n">
-        <v>-0.7366634515680318</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="108">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>2.8672035302297525</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>3.3222666276196406</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>3.435079517522673</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>2.8438318099240583</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>3.325657017922282</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>3.406519850731372</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>3.3575051730382737</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>3.0356670769779748</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.8672035302297525</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>3.3222666276196406</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>3.435079517522673</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7247,37 +7247,37 @@
         <v>188.0</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2850506667360841</v>
+        <v>0.0</v>
       </c>
       <c r="C189" t="n">
-        <v>0.281871196603896</v>
+        <v>0.0</v>
       </c>
       <c r="D189" t="n">
-        <v>0.2819813468465714</v>
+        <v>0.0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.24583695272876036</v>
+        <v>0.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.28463816762864447</v>
+        <v>0.0</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2915360384817491</v>
+        <v>0.0</v>
       </c>
       <c r="H189" t="n">
-        <v>0.2887273430487664</v>
+        <v>0.0</v>
       </c>
       <c r="I189" t="n">
-        <v>0.284084318336916</v>
+        <v>0.0</v>
       </c>
       <c r="J189" t="n">
-        <v>0.2850506667360841</v>
+        <v>0.0</v>
       </c>
       <c r="K189" t="n">
-        <v>0.281871196603896</v>
+        <v>0.0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2819813468465714</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -8425,37 +8425,37 @@
         <v>219.0</v>
       </c>
       <c r="B220" t="n">
-        <v>1.3843738194292468</v>
+        <v>0.0</v>
       </c>
       <c r="C220" t="n">
-        <v>1.1614530932515519</v>
+        <v>0.0</v>
       </c>
       <c r="D220" t="n">
-        <v>1.3567867692297269</v>
+        <v>0.0</v>
       </c>
       <c r="E220" t="n">
-        <v>1.311046530064515</v>
+        <v>0.0</v>
       </c>
       <c r="F220" t="n">
-        <v>1.4572899917250888</v>
+        <v>0.0</v>
       </c>
       <c r="G220" t="n">
-        <v>1.3021499086392965</v>
+        <v>0.0</v>
       </c>
       <c r="H220" t="n">
-        <v>1.198998345137968</v>
+        <v>0.0</v>
       </c>
       <c r="I220" t="n">
-        <v>1.3501524439303565</v>
+        <v>0.0</v>
       </c>
       <c r="J220" t="n">
-        <v>1.3843738194292468</v>
+        <v>0.0</v>
       </c>
       <c r="K220" t="n">
-        <v>1.1614530932515519</v>
+        <v>0.0</v>
       </c>
       <c r="L220" t="n">
-        <v>1.3567867692297269</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -9185,37 +9185,37 @@
         <v>239.0</v>
       </c>
       <c r="B240" t="n">
-        <v>2.7431115982132863</v>
+        <v>0.0</v>
       </c>
       <c r="C240" t="n">
-        <v>2.427636420980718</v>
+        <v>0.0</v>
       </c>
       <c r="D240" t="n">
-        <v>2.7835025591030895</v>
+        <v>0.0</v>
       </c>
       <c r="E240" t="n">
-        <v>2.767106866865417</v>
+        <v>0.0</v>
       </c>
       <c r="F240" t="n">
-        <v>2.489396033733255</v>
+        <v>0.0</v>
       </c>
       <c r="G240" t="n">
-        <v>2.440508085925013</v>
+        <v>0.0</v>
       </c>
       <c r="H240" t="n">
-        <v>2.8225822770586424</v>
+        <v>0.0</v>
       </c>
       <c r="I240" t="n">
-        <v>2.7475793491086375</v>
+        <v>0.0</v>
       </c>
       <c r="J240" t="n">
-        <v>2.7431115982132863</v>
+        <v>0.0</v>
       </c>
       <c r="K240" t="n">
-        <v>2.427636420980718</v>
+        <v>0.0</v>
       </c>
       <c r="L240" t="n">
-        <v>2.7835025591030895</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
@@ -9223,37 +9223,37 @@
         <v>240.0</v>
       </c>
       <c r="B241" t="n">
-        <v>0.24586798070627267</v>
+        <v>0.0</v>
       </c>
       <c r="C241" t="n">
-        <v>0.21759160841443925</v>
+        <v>0.0</v>
       </c>
       <c r="D241" t="n">
-        <v>0.24948826505752925</v>
+        <v>0.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.24801870189962355</v>
+        <v>0.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.22312718753070931</v>
+        <v>0.0</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2187453092956731</v>
+        <v>0.0</v>
       </c>
       <c r="H241" t="n">
-        <v>0.25299102132401174</v>
+        <v>0.0</v>
       </c>
       <c r="I241" t="n">
-        <v>0.24626842992301404</v>
+        <v>0.0</v>
       </c>
       <c r="J241" t="n">
-        <v>0.24586798070627267</v>
+        <v>0.0</v>
       </c>
       <c r="K241" t="n">
-        <v>0.21759160841443925</v>
+        <v>0.0</v>
       </c>
       <c r="L241" t="n">
-        <v>0.24948826505752925</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
@@ -10933,37 +10933,37 @@
         <v>285.0</v>
       </c>
       <c r="B286" t="n">
-        <v>0.4518772591595949</v>
+        <v>0.0</v>
       </c>
       <c r="C286" t="n">
-        <v>0.45486506764611784</v>
+        <v>0.0</v>
       </c>
       <c r="D286" t="n">
-        <v>0.47289867383356776</v>
+        <v>0.0</v>
       </c>
       <c r="E286" t="n">
-        <v>0.4052213398850406</v>
+        <v>0.0</v>
       </c>
       <c r="F286" t="n">
-        <v>0.4356489658880051</v>
+        <v>0.0</v>
       </c>
       <c r="G286" t="n">
-        <v>0.44866872702310895</v>
+        <v>0.0</v>
       </c>
       <c r="H286" t="n">
-        <v>0.4565191226699989</v>
+        <v>0.0</v>
       </c>
       <c r="I286" t="n">
-        <v>0.4540398747384841</v>
+        <v>0.0</v>
       </c>
       <c r="J286" t="n">
-        <v>0.4518772591595949</v>
+        <v>0.0</v>
       </c>
       <c r="K286" t="n">
-        <v>0.45486506764611784</v>
+        <v>0.0</v>
       </c>
       <c r="L286" t="n">
-        <v>0.47289867383356776</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
@@ -12111,37 +12111,37 @@
         <v>316.0</v>
       </c>
       <c r="B317" t="n">
-        <v>1.7950764668561332</v>
+        <v>0.0</v>
       </c>
       <c r="C317" t="n">
-        <v>1.532089461349031</v>
+        <v>0.0</v>
       </c>
       <c r="D317" t="n">
-        <v>1.9100148808639348</v>
+        <v>0.0</v>
       </c>
       <c r="E317" t="n">
-        <v>1.66599837844743</v>
+        <v>0.0</v>
       </c>
       <c r="F317" t="n">
-        <v>1.7214277999567278</v>
+        <v>0.0</v>
       </c>
       <c r="G317" t="n">
-        <v>1.49341576194347</v>
+        <v>0.0</v>
       </c>
       <c r="H317" t="n">
-        <v>1.7947357411411038</v>
+        <v>0.0</v>
       </c>
       <c r="I317" t="n">
-        <v>1.770809835885593</v>
+        <v>0.0</v>
       </c>
       <c r="J317" t="n">
-        <v>1.7950764668561332</v>
+        <v>0.0</v>
       </c>
       <c r="K317" t="n">
-        <v>1.532089461349031</v>
+        <v>0.0</v>
       </c>
       <c r="L317" t="n">
-        <v>1.9100148808639348</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>1.0119472724169225</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9984791291131561</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>0.8600148666774845</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>0.8869059542837634</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>0.8491569370357672</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>1.032160599452521</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>0.9784708702669895</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>0.8532338398437367</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>1.0119472724169225</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>0.9984791291131561</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>0.8600148666774845</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.43881266072510133</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.43297244359201165</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.3729299166038044</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>0.3845907511393032</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.3682215714894703</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>0.44757780497754135</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>0.42429622345675383</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>0.36998944677057066</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>0.43881266072510133</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>0.43297244359201165</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>0.3729299166038044</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>0.7590792462566974</v>
+        <v>0.0</v>
       </c>
       <c r="C491" t="n">
-        <v>0.8259292694021472</v>
+        <v>0.0</v>
       </c>
       <c r="D491" t="n">
-        <v>0.7982911957994366</v>
+        <v>0.0</v>
       </c>
       <c r="E491" t="n">
-        <v>0.8906212489806868</v>
+        <v>0.0</v>
       </c>
       <c r="F491" t="n">
-        <v>0.8147530122763744</v>
+        <v>0.0</v>
       </c>
       <c r="G491" t="n">
-        <v>0.7122175152521913</v>
+        <v>0.0</v>
       </c>
       <c r="H491" t="n">
-        <v>0.7429662471660684</v>
+        <v>0.0</v>
       </c>
       <c r="I491" t="n">
-        <v>0.8573152450884639</v>
+        <v>0.0</v>
       </c>
       <c r="J491" t="n">
-        <v>0.7590792462566974</v>
+        <v>0.0</v>
       </c>
       <c r="K491" t="n">
-        <v>0.8259292694021472</v>
+        <v>0.0</v>
       </c>
       <c r="L491" t="n">
-        <v>0.7982911957994366</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="492">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>0.27854078010189043</v>
+        <v>0.0</v>
       </c>
       <c r="C505" t="n">
-        <v>0.24650682930441753</v>
+        <v>0.0</v>
       </c>
       <c r="D505" t="n">
-        <v>0.28264215525652825</v>
+        <v>0.0</v>
       </c>
       <c r="E505" t="n">
-        <v>0.280977305416235</v>
+        <v>0.0</v>
       </c>
       <c r="F505" t="n">
-        <v>0.25277801809822636</v>
+        <v>0.0</v>
       </c>
       <c r="G505" t="n">
-        <v>0.24781384269648266</v>
+        <v>0.0</v>
       </c>
       <c r="H505" t="n">
-        <v>0.28661038430436997</v>
+        <v>0.0</v>
       </c>
       <c r="I505" t="n">
-        <v>0.2789944440434168</v>
+        <v>0.0</v>
       </c>
       <c r="J505" t="n">
-        <v>0.27854078010189043</v>
+        <v>0.0</v>
       </c>
       <c r="K505" t="n">
-        <v>0.24650682930441753</v>
+        <v>0.0</v>
       </c>
       <c r="L505" t="n">
-        <v>0.28264215525652825</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="506">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>0.09772864672995928</v>
+        <v>0.0</v>
       </c>
       <c r="C524" t="n">
-        <v>0.08728656579284635</v>
+        <v>0.0</v>
       </c>
       <c r="D524" t="n">
-        <v>0.0778751179156144</v>
+        <v>0.0</v>
       </c>
       <c r="E524" t="n">
-        <v>0.08967289351648809</v>
+        <v>0.0</v>
       </c>
       <c r="F524" t="n">
-        <v>0.0896816239848851</v>
+        <v>0.0</v>
       </c>
       <c r="G524" t="n">
-        <v>0.08854550667806826</v>
+        <v>0.0</v>
       </c>
       <c r="H524" t="n">
-        <v>0.09162109422169211</v>
+        <v>0.0</v>
       </c>
       <c r="I524" t="n">
-        <v>0.07687582432144616</v>
+        <v>0.0</v>
       </c>
       <c r="J524" t="n">
-        <v>0.09772864672995928</v>
+        <v>0.0</v>
       </c>
       <c r="K524" t="n">
-        <v>0.08728656579284635</v>
+        <v>0.0</v>
       </c>
       <c r="L524" t="n">
-        <v>0.0778751179156144</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="525">
@@ -20091,37 +20091,37 @@
         <v>526.0</v>
       </c>
       <c r="B527" t="n">
-        <v>1.3441890586729077</v>
+        <v>0.0</v>
       </c>
       <c r="C527" t="n">
-        <v>1.2005655520031762</v>
+        <v>0.0</v>
       </c>
       <c r="D527" t="n">
-        <v>1.0711176809219183</v>
+        <v>0.0</v>
       </c>
       <c r="E527" t="n">
-        <v>1.2333878177753645</v>
+        <v>0.0</v>
       </c>
       <c r="F527" t="n">
-        <v>1.2335078992508484</v>
+        <v>0.0</v>
       </c>
       <c r="G527" t="n">
-        <v>1.2178814017571102</v>
+        <v>0.0</v>
       </c>
       <c r="H527" t="n">
-        <v>1.2601839533984243</v>
+        <v>0.0</v>
       </c>
       <c r="I527" t="n">
-        <v>1.0573730977251974</v>
+        <v>0.0</v>
       </c>
       <c r="J527" t="n">
-        <v>1.3441890586729077</v>
+        <v>0.0</v>
       </c>
       <c r="K527" t="n">
-        <v>1.2005655520031762</v>
+        <v>0.0</v>
       </c>
       <c r="L527" t="n">
-        <v>1.0711176809219183</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="528">
@@ -20281,37 +20281,37 @@
         <v>531.0</v>
       </c>
       <c r="B532" t="n">
-        <v>0.41715407836111584</v>
+        <v>0.0</v>
       </c>
       <c r="C532" t="n">
-        <v>0.3725821253540333</v>
+        <v>0.0</v>
       </c>
       <c r="D532" t="n">
-        <v>0.3324094227060713</v>
+        <v>0.0</v>
       </c>
       <c r="E532" t="n">
-        <v>0.3827681493657439</v>
+        <v>0.0</v>
       </c>
       <c r="F532" t="n">
-        <v>0.38280541531201123</v>
+        <v>0.0</v>
       </c>
       <c r="G532" t="n">
-        <v>0.37795590614665</v>
+        <v>0.0</v>
       </c>
       <c r="H532" t="n">
-        <v>0.39108403111418844</v>
+        <v>0.0</v>
       </c>
       <c r="I532" t="n">
-        <v>0.3281439446478386</v>
+        <v>0.0</v>
       </c>
       <c r="J532" t="n">
-        <v>0.41715407836111584</v>
+        <v>0.0</v>
       </c>
       <c r="K532" t="n">
-        <v>0.3725821253540333</v>
+        <v>0.0</v>
       </c>
       <c r="L532" t="n">
-        <v>0.3324094227060713</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="533">
@@ -22447,37 +22447,37 @@
         <v>588.0</v>
       </c>
       <c r="B589" t="n">
-        <v>1.3394063980603383</v>
+        <v>0.0</v>
       </c>
       <c r="C589" t="n">
-        <v>1.3244665886353797</v>
+        <v>0.0</v>
       </c>
       <c r="D589" t="n">
-        <v>1.3249841665855617</v>
+        <v>0.0</v>
       </c>
       <c r="E589" t="n">
-        <v>1.1551475782704286</v>
+        <v>0.0</v>
       </c>
       <c r="F589" t="n">
-        <v>1.33746813231262</v>
+        <v>0.0</v>
       </c>
       <c r="G589" t="n">
-        <v>1.3698800977341787</v>
+        <v>0.0</v>
       </c>
       <c r="H589" t="n">
-        <v>1.356682497896172</v>
+        <v>0.0</v>
       </c>
       <c r="I589" t="n">
-        <v>1.3348656851989316</v>
+        <v>0.0</v>
       </c>
       <c r="J589" t="n">
-        <v>1.3394063980603383</v>
+        <v>0.0</v>
       </c>
       <c r="K589" t="n">
-        <v>1.3244665886353797</v>
+        <v>0.0</v>
       </c>
       <c r="L589" t="n">
-        <v>1.3249841665855617</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="590">
@@ -23435,37 +23435,37 @@
         <v>614.0</v>
       </c>
       <c r="B615" t="n">
-        <v>0.7532644832861468</v>
+        <v>0.0</v>
       </c>
       <c r="C615" t="n">
-        <v>0.7478647380465946</v>
+        <v>0.0</v>
       </c>
       <c r="D615" t="n">
-        <v>0.6781450980330322</v>
+        <v>0.0</v>
       </c>
       <c r="E615" t="n">
-        <v>0.7578241957878515</v>
+        <v>0.0</v>
       </c>
       <c r="F615" t="n">
-        <v>0.7334575364855233</v>
+        <v>0.0</v>
       </c>
       <c r="G615" t="n">
-        <v>0.7577702310636085</v>
+        <v>0.0</v>
       </c>
       <c r="H615" t="n">
-        <v>0.640697680226363</v>
+        <v>0.0</v>
       </c>
       <c r="I615" t="n">
-        <v>0.8170032748113566</v>
+        <v>0.0</v>
       </c>
       <c r="J615" t="n">
-        <v>0.7532644832861468</v>
+        <v>0.0</v>
       </c>
       <c r="K615" t="n">
-        <v>0.7478647380465946</v>
+        <v>0.0</v>
       </c>
       <c r="L615" t="n">
-        <v>0.6781450980330322</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="616">
